--- a/biology/Botanique/Faucille/Faucille.xlsx
+++ b/biology/Botanique/Faucille/Faucille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faucille est un outil de cultivateur, proche de la faux, utilisé pour moissonner les végétaux. 
 Elle ne doit pas être confondue avec la serpe qui est un outil de coupe du bois et non un outil de moisson.
@@ -514,10 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Préhistoire
-La faucille, qui se tient à une main, précède chronologiquement la faux. La faucille primitive apparaît au paléolithique supérieur (-20 000 à -10 000)[1]. Au Paléolithique et au Néolithique, la faucille était constituée d'une longue lame de silex[2], ou d'un « manche incurvé qui porte, fixées dans une gouttière, une série de lamelles de pierre »[3].
+          <t>Préhistoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faucille, qui se tient à une main, précède chronologiquement la faux. La faucille primitive apparaît au paléolithique supérieur (-20 000 à -10 000). Au Paléolithique et au Néolithique, la faucille était constituée d'une longue lame de silex, ou d'un « manche incurvé qui porte, fixées dans une gouttière, une série de lamelles de pierre ».
 Lieu de fabrication: En Europe-Centre. 
-A l'âge du bronze elle était couramment en bois garnie d'une denture en silex. Elle pouvait être droite avec une déviation du manche, ou rappeler la forme d'une faux moderne que l'on retrouve a l'énéolithique de l'Egypte à la Bretagne, en passant par l'Italie et la suisse avec peu de variantes[4].  
+A l'âge du bronze elle était couramment en bois garnie d'une denture en silex. Elle pouvait être droite avec une déviation du manche, ou rappeler la forme d'une faux moderne que l'on retrouve a l'énéolithique de l'Egypte à la Bretagne, en passant par l'Italie et la suisse avec peu de variantes.  
 			Faucille d'argile sumérienne.
 			Faucille néolithique.
 			Faucille actuelle.
@@ -549,13 +566,11 @@
           <t>Usage agricole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la moisson, le faucheur doit se protéger la main qui tient la javelle des coups de faucille possibles.
-Proximité avec l'outil dénommé croissant ou serpe
-Le croissant est un outil agricole doté d'une forte lame, en forme de croissant, utilisé pour l'élagage des arbres ainsi qu'à la tonte des haies, des ronciers et des broussailles. La lame d'acier s'aiguise à la pierre à eau, le métal se briserait au battage. Dans les campagnes bourbonnaises, cet outil est aussi appelé gouyard ou goyard, mot issu de "goye", désignant la serpe ordinaire[5],[6]. Le terme « volant », en tous pays francophones, est souvent employé pour désigner le même objet[7].
-France
-Dans quelques parties du Midi de la France, l'opérateur utilise des didals, des doigtiers faits de roseau[8]. Dans d'autres régions, les faucheurs à la faucille utilisaient des gants de bois préparés pendant les veillées d'hiver. Le gant de bois pouvait comporter trois ou quatre doigts, le pouce devant rester libre pour saisir le javelle, ou un creux unique pour tous les doigts. Le gant se termine par une pointe qui aide à la formation de la javelle[9].
 </t>
         </is>
       </c>
@@ -581,10 +596,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Usage agricole</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Proximité avec l'outil dénommé croissant ou serpe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le croissant est un outil agricole doté d'une forte lame, en forme de croissant, utilisé pour l'élagage des arbres ainsi qu'à la tonte des haies, des ronciers et des broussailles. La lame d'acier s'aiguise à la pierre à eau, le métal se briserait au battage. Dans les campagnes bourbonnaises, cet outil est aussi appelé gouyard ou goyard, mot issu de "goye", désignant la serpe ordinaire,. Le terme « volant », en tous pays francophones, est souvent employé pour désigner le même objet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faucille</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faucille</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Usage agricole</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans quelques parties du Midi de la France, l'opérateur utilise des didals, des doigtiers faits de roseau. Dans d'autres régions, les faucheurs à la faucille utilisaient des gants de bois préparés pendant les veillées d'hiver. Le gant de bois pouvait comporter trois ou quatre doigts, le pouce devant rester libre pour saisir le javelle, ou un creux unique pour tous les doigts. Le gant se termine par une pointe qui aide à la formation de la javelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faucille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faucille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Usage au combat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La faucille a été utilisée comme arme au XVIe siècle, et son usage au combat a fait notamment l'objet d'un chapitre du traité De arte athletica publié en 1542 par Paulus Hector Mair.
 			Exemple de technique de combat à la faucille.
@@ -593,69 +684,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Faucille</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faucille</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Entretien</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'affinage ou le redressement du tranchant de la faucille peut se faire par battage. Le fer souple s'affine sous les coups, il n'y a pas de perte de matière. Le battage peut se faire avec les mêmes outils que le battage de la faux. L'aiguisage se fait à la pierre.
-			Aiguisage à la pierre.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Faucille</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faucille</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Symbolique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été utilisée comme symbole de la classe paysanne, par exemple sur le drapeau soviétique représentant la faucille et le marteau.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -677,12 +705,81 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Entretien</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'affinage ou le redressement du tranchant de la faucille peut se faire par battage. Le fer souple s'affine sous les coups, il n'y a pas de perte de matière. Le battage peut se faire avec les mêmes outils que le battage de la faux. L'aiguisage se fait à la pierre.
+			Aiguisage à la pierre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faucille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faucille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été utilisée comme symbole de la classe paysanne, par exemple sur le drapeau soviétique représentant la faucille et le marteau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faucille</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faucille</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 10e jour du mois de messidor du calendrier républicain / révolutionnaire français est officiellement dénommé jour de la faucille[10], généralement chaque 28 juin du calendrier grégorien.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 10e jour du mois de messidor du calendrier républicain / révolutionnaire français est officiellement dénommé jour de la faucille, généralement chaque 28 juin du calendrier grégorien.
 </t>
         </is>
       </c>
